--- a/Router.xlsx
+++ b/Router.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Router IO" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="115">
   <si>
     <t>Source</t>
   </si>
@@ -352,20 +352,6 @@
 6</t>
   </si>
   <si>
-    <t>CG Key</t>
-  </si>
-  <si>
-    <t>CG Fill</t>
-  </si>
-  <si>
-    <t>RTR
-O/P 22</t>
-  </si>
-  <si>
-    <t>RTR
-O/P 23</t>
-  </si>
-  <si>
     <t>ACR
 Mon 2</t>
   </si>
@@ -389,6 +375,22 @@
   </si>
   <si>
     <t>PGM</t>
+  </si>
+  <si>
+    <t>VTR
+4</t>
+  </si>
+  <si>
+    <t>Cam
+5</t>
+  </si>
+  <si>
+    <t>CG
+Key</t>
+  </si>
+  <si>
+    <t>CG
+Fill</t>
   </si>
 </sst>
 </file>
@@ -580,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -623,9 +625,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -685,6 +684,12 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -992,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -1006,19 +1011,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1026,17 +1031,17 @@
       <c r="A2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="29">
         <v>1</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="31" t="s">
+      <c r="F2" s="28"/>
+      <c r="G2" s="30" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1044,17 +1049,17 @@
       <c r="A3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="29">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="31" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="30" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1062,490 +1067,490 @@
       <c r="A4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <v>3</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <v>4</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="31" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="30" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <v>5</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="31" t="s">
+      <c r="F6" s="28"/>
+      <c r="G6" s="30" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <v>6</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="30" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <v>7</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="34" t="s">
+      <c r="F8" s="28"/>
+      <c r="G8" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <v>8</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="34" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30">
+      <c r="D10" s="28"/>
+      <c r="E10" s="29">
         <v>9</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="34" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30">
+      <c r="D11" s="28"/>
+      <c r="E11" s="29">
         <v>10</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="34" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="33" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30">
+      <c r="D12" s="28"/>
+      <c r="E12" s="29">
         <v>11</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="31" t="s">
+      <c r="F12" s="28"/>
+      <c r="G12" s="30" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30">
+      <c r="D13" s="28"/>
+      <c r="E13" s="29">
         <v>12</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="34" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="33" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30">
+      <c r="D14" s="28"/>
+      <c r="E14" s="29">
         <v>13</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="31" t="s">
+      <c r="F14" s="28"/>
+      <c r="G14" s="30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30">
+      <c r="D15" s="28"/>
+      <c r="E15" s="29">
         <v>14</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="31" t="s">
+      <c r="F15" s="28"/>
+      <c r="G15" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30">
+      <c r="D16" s="28"/>
+      <c r="E16" s="29">
         <v>15</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="31" t="s">
+      <c r="F16" s="28"/>
+      <c r="G16" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30">
+      <c r="D17" s="28"/>
+      <c r="E17" s="29">
         <v>16</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="31" t="s">
+      <c r="F17" s="28"/>
+      <c r="G17" s="30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30">
+      <c r="D18" s="28"/>
+      <c r="E18" s="29">
         <v>17</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="31" t="s">
+      <c r="F18" s="28"/>
+      <c r="G18" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="37"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30">
+      <c r="C19" s="36"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29">
         <v>18</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="31" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="30" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20" s="37"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30">
+      <c r="C20" s="36"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29">
         <v>19</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="31" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="30" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="37"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30">
+      <c r="C21" s="36"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29">
         <v>20</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="38" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="37" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="37"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30">
+      <c r="C22" s="36"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29">
         <v>21</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="34" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="33" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="37"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30">
+      <c r="C23" s="36"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29">
         <v>22</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="38" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="37"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30">
+      <c r="C24" s="36"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29">
         <v>23</v>
       </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="38" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="37"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30">
+      <c r="C25" s="36"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29">
         <v>24</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="31" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="30" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="37"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30">
+      <c r="C26" s="36"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29">
         <v>25</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="31" t="s">
+      <c r="F26" s="28"/>
+      <c r="G26" s="30" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="37"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30">
+      <c r="C27" s="36"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29">
         <v>26</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="31" t="s">
+      <c r="F27" s="28"/>
+      <c r="G27" s="30" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="37"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30">
+      <c r="C28" s="36"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29">
         <v>27</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="31" t="s">
+      <c r="F28" s="28"/>
+      <c r="G28" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="37"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30">
+      <c r="C29" s="36"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="29">
         <v>28</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="31" t="s">
+      <c r="F29" s="28"/>
+      <c r="G29" s="30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30">
+      <c r="D30" s="28"/>
+      <c r="E30" s="29">
         <v>29</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="31" t="s">
+      <c r="F30" s="28"/>
+      <c r="G30" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30">
+      <c r="D31" s="28"/>
+      <c r="E31" s="29">
         <v>30</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="31" t="s">
+      <c r="F31" s="28"/>
+      <c r="G31" s="30" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="30">
+      <c r="D32" s="28"/>
+      <c r="E32" s="29">
         <v>31</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="31" t="s">
+      <c r="F32" s="28"/>
+      <c r="G32" s="30" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30">
+      <c r="D33" s="28"/>
+      <c r="E33" s="29">
         <v>32</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="31" t="s">
+      <c r="F33" s="28"/>
+      <c r="G33" s="30" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="30">
+      <c r="D34" s="28"/>
+      <c r="E34" s="29">
         <v>33</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="31" t="s">
+      <c r="F34" s="28"/>
+      <c r="G34" s="30" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30">
+      <c r="D35" s="28"/>
+      <c r="E35" s="29">
         <v>34</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="31" t="s">
+      <c r="F35" s="28"/>
+      <c r="G35" s="30" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30">
+      <c r="D36" s="28"/>
+      <c r="E36" s="29">
         <v>35</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="31" t="s">
+      <c r="F36" s="28"/>
+      <c r="G36" s="30" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30">
+      <c r="D37" s="28"/>
+      <c r="E37" s="29">
         <v>36</v>
       </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="31" t="s">
+      <c r="F37" s="28"/>
+      <c r="G37" s="30" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30">
+      <c r="D38" s="28"/>
+      <c r="E38" s="29">
         <v>37</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="31" t="s">
+      <c r="F38" s="28"/>
+      <c r="G38" s="30" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="30">
+      <c r="D39" s="28"/>
+      <c r="E39" s="29">
         <v>38</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="31" t="s">
+      <c r="F39" s="28"/>
+      <c r="G39" s="30" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30">
+      <c r="D40" s="28"/>
+      <c r="E40" s="29">
         <v>39</v>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="31" t="s">
+      <c r="F40" s="28"/>
+      <c r="G40" s="30" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30">
+      <c r="D41" s="28"/>
+      <c r="E41" s="29">
         <v>40</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="31" t="s">
+      <c r="F41" s="28"/>
+      <c r="G41" s="30" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1559,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,48 +1576,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="14"/>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
       <c r="Y1" s="13"/>
     </row>
     <row r="2" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I2" s="15"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
       <c r="Y2" s="13"/>
     </row>
     <row r="3" spans="1:25" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1639,81 +1644,81 @@
         <v>37</v>
       </c>
       <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
       <c r="Y3" s="13"/>
     </row>
     <row r="4" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I4" s="15"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
       <c r="Y4" s="12"/>
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="14"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
       <c r="Y5"/>
     </row>
     <row r="6" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I6" s="15"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
       <c r="Y6" s="13"/>
     </row>
     <row r="7" spans="1:25" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1740,81 +1745,81 @@
         <v>38</v>
       </c>
       <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
       <c r="Y7" s="13"/>
     </row>
     <row r="8" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I8" s="15"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
       <c r="Y8" s="12"/>
     </row>
     <row r="9" spans="1:25" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
       <c r="Y9"/>
     </row>
     <row r="10" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I10" s="15"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
       <c r="Y10" s="13"/>
     </row>
     <row r="11" spans="1:25" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1841,81 +1846,81 @@
         <v>39</v>
       </c>
       <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
       <c r="Y11" s="13"/>
     </row>
     <row r="12" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I12" s="15"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
       <c r="Y12" s="12"/>
     </row>
     <row r="13" spans="1:25" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
       <c r="Y13"/>
     </row>
     <row r="14" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I14" s="15"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
       <c r="Y14" s="13"/>
     </row>
     <row r="15" spans="1:25" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1942,81 +1947,81 @@
         <v>40</v>
       </c>
       <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
       <c r="Y15" s="13"/>
     </row>
     <row r="16" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I16" s="15"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
       <c r="Y16" s="12"/>
     </row>
     <row r="17" spans="1:25" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
       <c r="Y17"/>
     </row>
     <row r="18" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I18" s="15"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
       <c r="Y18" s="13"/>
     </row>
     <row r="19" spans="1:25" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2041,81 +2046,81 @@
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
       <c r="Y19" s="13"/>
     </row>
     <row r="20" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I20" s="15"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="40"/>
       <c r="Y20" s="12"/>
     </row>
     <row r="21" spans="1:25" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="40"/>
       <c r="Y21"/>
     </row>
     <row r="22" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I22" s="15"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
       <c r="Y22" s="13"/>
     </row>
     <row r="23" spans="1:25" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2140,85 +2145,89 @@
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="40"/>
       <c r="Y23" s="13"/>
     </row>
     <row r="24" spans="1:25" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:25" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="H25" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="I25" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="J25" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="L25" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="M25" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="N25" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="O25" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="N25" s="21" t="s">
+      <c r="P25" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="O25" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="P25" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q25" s="21" t="s">
+      <c r="Q25" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="R25" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="S25" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="W25" s="17" t="s">
+      <c r="T25" s="22"/>
+      <c r="U25" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="W25" s="40" t="s">
         <v>78</v>
       </c>
       <c r="Y25" s="13"/>
     </row>
     <row r="26" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W26" s="17"/>
+      <c r="W26" s="40"/>
       <c r="Y26" s="13"/>
     </row>
     <row r="27" spans="1:25" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2284,71 +2293,69 @@
         <v>20</v>
       </c>
       <c r="V27" s="4"/>
-      <c r="W27" s="17"/>
+      <c r="W27" s="40"/>
       <c r="Y27" s="13"/>
     </row>
     <row r="28" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W28" s="17"/>
+      <c r="W28" s="40"/>
       <c r="Y28" s="12"/>
     </row>
     <row r="29" spans="1:25" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="24" t="s">
+      <c r="E29" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="L29" s="24" t="s">
+      <c r="L29" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="M29" s="24" t="s">
+      <c r="M29" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="N29" s="24" t="s">
+      <c r="N29" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="O29" s="24" t="s">
+      <c r="O29" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="P29" s="24" t="s">
+      <c r="P29" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="Q29" s="24" t="s">
+      <c r="Q29" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="R29" s="24" t="s">
+      <c r="R29" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="S29" s="24" t="s">
+      <c r="S29" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="T29" s="24" t="s">
+      <c r="T29" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="U29" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="W29" s="17"/>
+      <c r="U29" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="W29" s="40"/>
       <c r="Y29"/>
     </row>
     <row r="30" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W30" s="17"/>
+      <c r="W30" s="40"/>
       <c r="Y30" s="13"/>
     </row>
     <row r="31" spans="1:25" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2414,66 +2421,70 @@
         <v>40</v>
       </c>
       <c r="V31" s="4"/>
-      <c r="W31" s="17"/>
+      <c r="W31" s="40"/>
       <c r="Y31" s="13"/>
     </row>
     <row r="32" spans="1:25" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:25" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G33" s="21" t="s">
+      <c r="H33" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="I33" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="J33" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="J33" s="21" t="s">
+      <c r="L33" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="K33" s="21" t="s">
+      <c r="M33" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="L33" s="21" t="s">
+      <c r="N33" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="M33" s="21" t="s">
+      <c r="O33" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="N33" s="21" t="s">
+      <c r="P33" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="W33" s="17" t="s">
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="W33" s="40" t="s">
         <v>80</v>
       </c>
       <c r="Y33" s="13"/>
     </row>
     <row r="34" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W34" s="17"/>
+      <c r="W34" s="40"/>
       <c r="Y34" s="13"/>
     </row>
     <row r="35" spans="1:25" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2539,53 +2550,57 @@
         <v>20</v>
       </c>
       <c r="V35" s="4"/>
-      <c r="W35" s="17"/>
+      <c r="W35" s="40"/>
       <c r="Y35" s="13"/>
     </row>
     <row r="36" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W36" s="17"/>
+      <c r="W36" s="40"/>
       <c r="Y36" s="12"/>
     </row>
     <row r="37" spans="1:25" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37" s="22" t="s">
+      <c r="E37" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="T37" s="24" t="s">
+      <c r="F37" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="U37" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="W37" s="17"/>
+      <c r="G37" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="T37" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="U37" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="W37" s="40"/>
       <c r="Y37"/>
     </row>
     <row r="38" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="W38" s="17"/>
+      <c r="W38" s="40"/>
       <c r="Y38" s="13"/>
     </row>
     <row r="39" spans="1:25" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2651,7 +2666,7 @@
         <v>40</v>
       </c>
       <c r="V39" s="4"/>
-      <c r="W39" s="17"/>
+      <c r="W39" s="40"/>
       <c r="Y39" s="13"/>
     </row>
   </sheetData>
@@ -2661,5 +2676,6 @@
     <mergeCell ref="W25:W31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Router.xlsx
+++ b/Router.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Router IO" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>Source</t>
   </si>
@@ -83,12 +83,6 @@
     <t>VTR 04</t>
   </si>
   <si>
-    <t>CG 01 O/P 1</t>
-  </si>
-  <si>
-    <t>Prompter</t>
-  </si>
-  <si>
     <t>PGM SD</t>
   </si>
   <si>
@@ -99,12 +93,6 @@
   </si>
   <si>
     <t>Multiviewer 2</t>
-  </si>
-  <si>
-    <t>Embedder 02 (PGM 4K)</t>
-  </si>
-  <si>
-    <t>Embedder 01 (PGM HD)</t>
   </si>
   <si>
     <t>VMX Aux 01</t>
@@ -367,6 +355,21 @@
   </si>
   <si>
     <t>RTR Panel 01 (VTR)</t>
+  </si>
+  <si>
+    <t>CG 01 Key</t>
+  </si>
+  <si>
+    <t>CG 01 Fill</t>
+  </si>
+  <si>
+    <t>Prompt 01</t>
+  </si>
+  <si>
+    <t>Embedder 01 (PGM 4K)</t>
+  </si>
+  <si>
+    <t>Embedder 02 (PGM HD)</t>
   </si>
 </sst>
 </file>
@@ -935,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -956,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>7</v>
@@ -967,7 +970,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>2</v>
@@ -980,12 +983,12 @@
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>3</v>
@@ -998,12 +1001,12 @@
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>4</v>
@@ -1016,7 +1019,7 @@
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1031,7 +1034,7 @@
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1046,12 +1049,12 @@
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C7" s="25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>8</v>
@@ -1061,12 +1064,12 @@
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C8" s="25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>9</v>
@@ -1076,12 +1079,12 @@
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C9" s="25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>10</v>
@@ -1091,7 +1094,7 @@
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -1104,7 +1107,7 @@
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1117,7 +1120,7 @@
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1130,7 +1133,7 @@
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1143,7 +1146,7 @@
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1156,7 +1159,7 @@
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1169,12 +1172,12 @@
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C16" s="28" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23">
@@ -1182,12 +1185,12 @@
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C17" s="28" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23">
@@ -1195,12 +1198,12 @@
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C18" s="28" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="23">
@@ -1252,7 +1255,7 @@
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.35">
@@ -1262,10 +1265,10 @@
         <v>22</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.35">
@@ -1275,10 +1278,10 @@
         <v>23</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.35">
@@ -1289,7 +1292,7 @@
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.35">
@@ -1300,7 +1303,7 @@
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.35">
@@ -1311,7 +1314,7 @@
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.35">
@@ -1322,7 +1325,7 @@
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.35">
@@ -1333,12 +1336,12 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C30" s="28" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="23">
@@ -1346,12 +1349,12 @@
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C31" s="21" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="23">
@@ -1359,12 +1362,12 @@
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C32" s="33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="23">
@@ -1372,12 +1375,12 @@
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C33" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="23">
@@ -1385,12 +1388,12 @@
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C34" s="28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="23">
@@ -1398,12 +1401,12 @@
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C35" s="28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="23">
@@ -1411,12 +1414,12 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C36" s="21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="23">
@@ -1424,12 +1427,12 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C37" s="21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="23">
@@ -1437,12 +1440,12 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C38" s="21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="23">
@@ -1450,12 +1453,12 @@
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C39" s="21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="23">
@@ -1463,12 +1466,12 @@
       </c>
       <c r="F39" s="22"/>
       <c r="G39" s="24" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C40" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="23">
@@ -1476,12 +1479,12 @@
       </c>
       <c r="F40" s="22"/>
       <c r="G40" s="24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.35">
       <c r="C41" s="21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="23">
@@ -1489,7 +1492,7 @@
       </c>
       <c r="F41" s="22"/>
       <c r="G41" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1502,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
@@ -1515,65 +1518,65 @@
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="J1" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>86</v>
-      </c>
       <c r="M1" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="T1" s="16"/>
       <c r="U1" s="14" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="W1" s="35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Y1" s="13"/>
     </row>
@@ -1653,16 +1656,16 @@
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -1670,37 +1673,37 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N5" s="17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="U5" s="17" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="W5" s="35"/>
       <c r="Y5"/>

--- a/Router.xlsx
+++ b/Router.xlsx
@@ -2,20 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28725" windowHeight="17565"/>
   </bookViews>
   <sheets>
     <sheet name="Router IO" sheetId="2" r:id="rId1"/>
     <sheet name="Router Panels" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
   <si>
     <t>Source</t>
   </si>
@@ -131,21 +136,6 @@
     <t>CCU Mon 04</t>
   </si>
   <si>
-    <t>VT Mon 01</t>
-  </si>
-  <si>
-    <t>VT Mon 02</t>
-  </si>
-  <si>
-    <t>VT Mon 03</t>
-  </si>
-  <si>
-    <t>VT Mon 04</t>
-  </si>
-  <si>
-    <t>VT Audio Mon</t>
-  </si>
-  <si>
     <t>ACR Mon 01</t>
   </si>
   <si>
@@ -213,12 +203,6 @@
   </si>
   <si>
     <t>VMX I/P 15</t>
-  </si>
-  <si>
-    <t>VMX I/P 16</t>
-  </si>
-  <si>
-    <t>VMX I/P 17</t>
   </si>
   <si>
     <t>I/O</t>
@@ -292,22 +276,6 @@
   </si>
   <si>
     <t>CCU
-Mon 7</t>
-  </si>
-  <si>
-    <t>CCU
-Mon 6</t>
-  </si>
-  <si>
-    <t>CCU
-Mon 5</t>
-  </si>
-  <si>
-    <t>CCU
-Mon 4</t>
-  </si>
-  <si>
-    <t>CCU
 Mon 3</t>
   </si>
   <si>
@@ -335,9 +303,6 @@
 Audio</t>
   </si>
   <si>
-    <t>PGM</t>
-  </si>
-  <si>
     <t>VTR
 4</t>
   </si>
@@ -370,13 +335,78 @@
   </si>
   <si>
     <t>Embedder 02 (PGM HD)</t>
+  </si>
+  <si>
+    <t>CCU
+PGM</t>
+  </si>
+  <si>
+    <t>CCU
+AUX1</t>
+  </si>
+  <si>
+    <t>PGM
+4K</t>
+  </si>
+  <si>
+    <t>PGM
+HD</t>
+  </si>
+  <si>
+    <t>ACR
+Mon 1</t>
+  </si>
+  <si>
+    <t>ACR
+Mon 2</t>
+  </si>
+  <si>
+    <t>ACR
+Mon 3</t>
+  </si>
+  <si>
+    <t>DeEm
+1</t>
+  </si>
+  <si>
+    <t>DeEm
+2</t>
+  </si>
+  <si>
+    <t>Floor
+W/L 1</t>
+  </si>
+  <si>
+    <t>Floor
+W/L 2</t>
+  </si>
+  <si>
+    <t>VTR Mon 01</t>
+  </si>
+  <si>
+    <t>VTR Mon 02</t>
+  </si>
+  <si>
+    <t>VTR Mon 03</t>
+  </si>
+  <si>
+    <t>VTR Mon 04</t>
+  </si>
+  <si>
+    <t>VTR Audio Mon</t>
+  </si>
+  <si>
+    <t>SDI-HDMI 01</t>
+  </si>
+  <si>
+    <t>SDI-HDMI 02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,19 +473,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -466,12 +512,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,6 +530,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,15 +577,43 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -547,7 +621,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -563,29 +637,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -595,45 +660,76 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="29">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -692,7 +788,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,7 +823,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -939,565 +1035,570 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.7265625" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" style="7" customWidth="1"/>
-    <col min="4" max="6" width="9.1796875" style="6"/>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="7" customWidth="1"/>
+    <col min="4" max="6" width="8.85546875" style="6"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:7" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="19" t="s">
+      <c r="E1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="20">
         <v>1</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="24" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="20">
         <v>2</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="24" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="20">
         <v>3</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="24" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C5" s="21" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="20">
         <v>4</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="24" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C6" s="21" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="20">
         <v>5</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="24" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C7" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="26" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="20">
         <v>6</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="24" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C8" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="26" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="20">
         <v>7</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="27" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="20">
+        <v>8</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20">
+        <v>9</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20">
+        <v>10</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20">
+        <v>11</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20">
+        <v>12</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C9" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="23">
-        <v>8</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="27" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20">
+        <v>13</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C10" s="21" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20">
+        <v>14</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20">
+        <v>15</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20">
         <v>16</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23">
-        <v>9</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="27" t="s">
+      <c r="F17" s="19"/>
+      <c r="G17" s="21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20">
+        <v>17</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="27"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20">
+        <v>18</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="27"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20">
+        <v>19</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="27"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20">
+        <v>20</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="27"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20">
+        <v>21</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="27"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20">
+        <v>22</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="27"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20">
+        <v>23</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="27"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20">
+        <v>24</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="27"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20">
+        <v>25</v>
+      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="27"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20">
+        <v>26</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="27"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20">
+        <v>27</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="27"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20">
+        <v>28</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20">
+        <v>29</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20">
+        <v>30</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20">
+        <v>31</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20">
+        <v>32</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20">
+        <v>33</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20">
+        <v>34</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20">
+        <v>35</v>
+      </c>
+      <c r="F36" s="19"/>
+      <c r="G36" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20">
+        <v>36</v>
+      </c>
+      <c r="F37" s="19"/>
+      <c r="G37" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20">
+        <v>37</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20">
+        <v>38</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20">
+        <v>39</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="20">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C11" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23">
-        <v>10</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23">
-        <v>11</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C13" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23">
-        <v>12</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23">
-        <v>13</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C15" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23">
-        <v>14</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C16" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23">
-        <v>15</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C17" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23">
-        <v>16</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C18" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23">
-        <v>17</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C19" s="30"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23">
-        <v>18</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C20" s="30"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23">
-        <v>19</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C21" s="30"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23">
-        <v>20</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C22" s="30"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23">
-        <v>21</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C23" s="30"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23">
-        <v>22</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C24" s="30"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23">
-        <v>23</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C25" s="30"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23">
-        <v>24</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C26" s="30"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23">
-        <v>25</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C27" s="30"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23">
-        <v>26</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C28" s="30"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23">
-        <v>27</v>
-      </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C29" s="30"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23">
-        <v>28</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C30" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23">
-        <v>29</v>
-      </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C31" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23">
-        <v>30</v>
-      </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C32" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23">
-        <v>31</v>
-      </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C33" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23">
-        <v>32</v>
-      </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C34" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23">
-        <v>33</v>
-      </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C35" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23">
-        <v>34</v>
-      </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C36" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="23">
-        <v>35</v>
-      </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C37" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23">
-        <v>36</v>
-      </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C38" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="23">
-        <v>37</v>
-      </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C39" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="23">
-        <v>38</v>
-      </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C40" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="23">
-        <v>39</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C41" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23">
-        <v>40</v>
-      </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="24" t="s">
-        <v>67</v>
+      <c r="F41" s="19"/>
+      <c r="G41" s="21" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1506,85 +1607,87 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="22" width="7.1796875" customWidth="1"/>
-    <col min="23" max="23" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="7.1796875" customWidth="1"/>
+    <col min="1" max="22" width="7.140625" customWidth="1"/>
+    <col min="23" max="23" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B1" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="14" t="s">
+    <row r="1" spans="1:25" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="S1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="T1" s="16"/>
+      <c r="T1" s="32" t="s">
+        <v>103</v>
+      </c>
       <c r="U1" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="W1" s="35" t="s">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>91</v>
       </c>
       <c r="Y1" s="13"/>
     </row>
-    <row r="2" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="W2" s="35"/>
+    <row r="2" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="W2" s="33"/>
       <c r="Y2" s="13"/>
     </row>
-    <row r="3" spans="1:25" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:25" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>1</v>
@@ -1647,72 +1750,82 @@
         <v>20</v>
       </c>
       <c r="V3" s="4"/>
-      <c r="W3" s="35"/>
+      <c r="W3" s="33"/>
       <c r="Y3" s="13"/>
     </row>
-    <row r="4" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="W4" s="35"/>
+    <row r="4" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="W4" s="33"/>
       <c r="Y4" s="12"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:25" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="O5" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="T5" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="Q5" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="R5" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="T5" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="W5" s="35"/>
+      <c r="U5" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="W5" s="33"/>
       <c r="Y5"/>
     </row>
-    <row r="6" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="W6" s="35"/>
+    <row r="6" spans="1:25" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="W6" s="33"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:25" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:25" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="3">
         <v>21</v>
@@ -1775,7 +1888,7 @@
         <v>40</v>
       </c>
       <c r="V7" s="4"/>
-      <c r="W7" s="35"/>
+      <c r="W7" s="33"/>
       <c r="Y7" s="13"/>
     </row>
   </sheetData>
@@ -1783,6 +1896,11 @@
     <mergeCell ref="W1:W7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>